--- a/Test_Workers.xlsx
+++ b/Test_Workers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive - American University of Kuwait\Road Safety Data Analysis\Driver-Routing-Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B403E-A36D-4CE1-BC6A-E64ED6AB615F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4427B0CF-667F-4ECC-B4F7-90B9027E4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>Leave Time</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
     <t>Boulevard Salmiya</t>
   </si>
   <si>
     <t>American University of Kuwait</t>
   </si>
   <si>
-    <t>Kuwait towers</t>
-  </si>
-  <si>
-    <t>Holiday Inn Salmiya</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Pick-up Time</t>
-  </si>
-  <si>
-    <t>Arrival Time</t>
-  </si>
-  <si>
-    <t>W1</t>
-  </si>
-  <si>
     <t>W2</t>
   </si>
   <si>
-    <t>W3</t>
+    <t>Home Coordinates (Optional)</t>
+  </si>
+  <si>
+    <t>Destination Coordinates (Optional)</t>
+  </si>
+  <si>
+    <t>29.347099860913723, 48.094484489323804</t>
+  </si>
+  <si>
+    <t>hikw</t>
+  </si>
+  <si>
+    <t>29.344075903650204, 48.08342085948421</t>
+  </si>
+  <si>
+    <t>auk</t>
   </si>
 </sst>
 </file>
@@ -63,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm\ \t\t"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -86,7 +95,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +107,13 @@
         <fgColor rgb="FFA6CAEC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -109,21 +123,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -144,43 +143,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,87 +566,86 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="11">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.33333333333333331</v>
+      <c r="G3" s="11">
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
